--- a/InputFiles/CDS/TC02_CDS_Filter_Study-HTAN-imaging.xlsx
+++ b/InputFiles/CDS/TC02_CDS_Filter_Study-HTAN-imaging.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\FebBranch\Commons_Automation\InputFiles\CDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\MarchBranch\Commons_Automation\InputFiles\CDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49866725-3EF3-4046-9F08-35C02DEBE745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC7F6DC-4758-4974-A63C-90F6CC998971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -55,93 +55,6 @@
   </si>
   <si>
     <t>ParticipantsTab</t>
-  </si>
-  <si>
-    <t>WITH {
-   study_name: "Human Tumor Atlas Network (HTAN) imaging data",
-    subject_ids: [],
-    experimental_strategies: [],
-    genders: [],
-    sample_tumor_statuses: [],
-    file_types: [],
-    library_strategies: [],
-    library_sources: [],
-    library_selections: [],
-    library_layouts: [],
-    platforms: [],
-    instrument_models: [],
-    reference_genome_assemblies: [],
-    primary_diagnoses: [],
-    num_study_samples_min: 0,
-    num_study_samples_max: 0,
-    num_study_participants_max: 0,
-    num_study_participants_min: 0
-} AS inputs, "Not specified in data" AS na
-MATCH (s:study {study_name: inputs.study_name})
-OPTIONAL MATCH (s)&lt;--(p:participant)
-WITH inputs, na, s, count(distinct p) AS num_p
-WHERE
-    (inputs.num_study_participants_min = 0 OR num_p &gt;= inputs.num_study_participants_min) AND
-    (inputs.num_study_participants_max = 0 OR num_p &lt;= inputs.num_study_participants_max)
-OPTIONAL MATCH (s)&lt;--(:participant)&lt;--(samp:sample)
-WITH inputs, na, s, count(distinct samp) AS num_samp
-WHERE
-    (inputs.num_study_samples_min = 0 OR num_samp &gt;= inputs.num_study_samples_min) AND
-    (inputs.num_study_participants_max = 0 OR num_samp &lt;= inputs.num_study_participants_max)
-MATCH (s)&lt;--(p:participant)
-WITH inputs, na, p, {
-	participant_id: coalesce(p.participant_id, ""),
-	study_name: coalesce(s.study_name, ""),
-	accession: coalesce(s.phs_accession, ""),
-	gender: coalesce(p.gender, "")
-} AS data
-WHERE 
-    (size(inputs.subject_ids) = 0 OR p.participant_id IN inputs.subject_ids) AND
-    (size(inputs.genders) = 0 OR p.gender IN inputs.genders)
-OPTIONAL MATCH (p)&lt;--(samp:sample)
-WITH inputs, na, p, apoc.map.merge(data, {
-		samples: coalesce(apoc.text.join(apoc.coll.sort(collect(distinct samp.sample_id)), ""), "")
-	}) AS data,
-	COLLECT(DISTINCT samp.sample_tumor_status) AS sample_tumor_statuses
-WHERE
-    (size(inputs.sample_tumor_statuses) = 0 OR size(apoc.coll.intersection(inputs.sample_tumor_statuses, sample_tumor_statuses)) &gt; 0)
-OPTIONAL MATCH (p)&lt;--(:sample)&lt;--(f:file)
-WITH inputs, na, p, data,
-	COLLECT(DISTINCT f.file_type) AS file_types, 
-	apoc.coll.toSet(apoc.text.split(f.experimental_strategy_and_data_subtypes,"[;,]\\s{0,1}")) AS experimental_strategies
-WHERE
-    (size(inputs.experimental_strategies) = 0 OR size(apoc.coll.intersection(inputs.experimental_strategies, experimental_strategies)) &gt; 0) AND
-    (size(inputs.file_types) = 0 OR size(apoc.coll.intersection(inputs.file_types, file_types)) &gt; 0)
-OPTIONAL MATCH (p)&lt;--(:sample)&lt;--(:file)&lt;--(g:genomic_info)
-WITH inputs, na, p, data,
-	COLLECT(DISTINCT g.library_strategy) AS library_strategy,
-	COLLECT(DISTINCT g.library_source) AS library_source,
-	COLLECT(DISTINCT g.library_selection) AS library_selection,
-	COLLECT(DISTINCT g.library_layout) AS library_layout,
-	COLLECT(DISTINCT g.platform) AS platform,
-	COLLECT(DISTINCT g.instrument_model) AS instrument_models,
-	COLLECT(DISTINCT g.reference_genome_assembly) AS reference_genome_assembly
-WHERE
-    (size(inputs.library_strategies) = 0 OR size(apoc.coll.intersection(inputs.library_strategies, library_strategy)) &gt; 0) AND
-    (size(inputs.library_sources) = 0 OR size(apoc.coll.intersection(inputs.library_sources, library_source)) &gt; 0) AND 
-    (size(inputs.library_selections) = 0 OR size(apoc.coll.intersection(inputs.library_selections, library_selection)) &gt; 0) AND
-    (size(inputs.library_layouts) = 0 OR size(apoc.coll.intersection(inputs.library_layouts, library_layout)) &gt; 0) AND
-    (size(inputs.platforms) = 0 OR size(apoc.coll.intersection(inputs.platforms, platform)) &gt; 0) AND
-    (size(inputs.instrument_models) = 0 OR size(apoc.coll.intersection(inputs.instrument_models, instrument_models)) &gt; 0) AND
-    (size(inputs.reference_genome_assemblies) = 0 OR size(apoc.coll.intersection(inputs.reference_genome_assemblies, reference_genome_assembly)) &gt; 0)
-OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
-WITH inputs, na, p, data,
-	COLLECT(DISTINCT diag.primary_diagnosis) AS primary_diagnosis
-WHERE
-    (size(inputs.primary_diagnoses) = 0 OR size(apoc.coll.intersection(inputs.primary_diagnoses, primary_diagnosis)) &gt; 0)
-RETURN 
-	data.participant_id AS `Participant ID`,
-	data.study_name AS `Study Name`,
-	data.accession AS `Accession`,
-	data.gender AS `Gender`,
-	data.samples AS `Samples`
-ORDER BY `Participant ID`
-LIMIT 100</t>
   </si>
   <si>
     <t>WITH {
@@ -495,6 +408,93 @@
   </si>
   <si>
     <t>TC02_CDS_Filter_Study-HTAN-imaging_WebData.xlsx</t>
+  </si>
+  <si>
+    <t>WITH {
+   study_name: "Human Tumor Atlas Network (HTAN) imaging data",
+    subject_ids: [],
+    experimental_strategies: [],
+    genders: [],
+    sample_tumor_statuses: [],
+    file_types: [],
+    library_strategies: [],
+    library_sources: [],
+    library_selections: [],
+    library_layouts: [],
+    platforms: [],
+    instrument_models: [],
+    reference_genome_assemblies: [],
+    primary_diagnoses: [],
+    num_study_samples_min: 0,
+    num_study_samples_max: 0,
+    num_study_participants_max: 0,
+    num_study_participants_min: 0
+} AS inputs, "Not specified in data" AS na
+MATCH (s:study {study_name: inputs.study_name})
+OPTIONAL MATCH (s)&lt;--(p:participant)
+WITH inputs, na, s, count(distinct p) AS num_p
+WHERE
+    (inputs.num_study_participants_min = 0 OR num_p &gt;= inputs.num_study_participants_min) AND
+    (inputs.num_study_participants_max = 0 OR num_p &lt;= inputs.num_study_participants_max)
+OPTIONAL MATCH (s)&lt;--(:participant)&lt;--(samp:sample)
+WITH inputs, na, s, count(distinct samp) AS num_samp
+WHERE
+    (inputs.num_study_samples_min = 0 OR num_samp &gt;= inputs.num_study_samples_min) AND
+    (inputs.num_study_participants_max = 0 OR num_samp &lt;= inputs.num_study_participants_max)
+MATCH (s)&lt;--(p:participant)
+WITH inputs, na, p, {
+	participant_id: coalesce(p.participant_id, ""),
+	study_name: coalesce(s.study_name, ""),
+	accession: coalesce(s.phs_accession, ""),
+	gender: coalesce(p.gender, "")
+} AS data
+WHERE 
+    (size(inputs.subject_ids) = 0 OR p.participant_id IN inputs.subject_ids) AND
+    (size(inputs.genders) = 0 OR p.gender IN inputs.genders)
+OPTIONAL MATCH (p)&lt;--(samp:sample)
+WITH inputs, na, p, apoc.map.merge(data, {
+		samples: coalesce(apoc.text.join(apoc.coll.sort(collect(distinct samp.sample_id)), ", "), "")
+	}) AS data,
+	COLLECT(DISTINCT samp.sample_tumor_status) AS sample_tumor_statuses
+WHERE
+    (size(inputs.sample_tumor_statuses) = 0 OR size(apoc.coll.intersection(inputs.sample_tumor_statuses, sample_tumor_statuses)) &gt; 0)
+OPTIONAL MATCH (p)&lt;--(:sample)&lt;--(f:file)
+WITH inputs, na, p, data,
+	COLLECT(DISTINCT f.file_type) AS file_types, 
+	apoc.coll.toSet(apoc.text.split(f.experimental_strategy_and_data_subtypes,"[;,]\\s{0,1}")) AS experimental_strategies
+WHERE
+    (size(inputs.experimental_strategies) = 0 OR size(apoc.coll.intersection(inputs.experimental_strategies, experimental_strategies)) &gt; 0) AND
+    (size(inputs.file_types) = 0 OR size(apoc.coll.intersection(inputs.file_types, file_types)) &gt; 0)
+OPTIONAL MATCH (p)&lt;--(:sample)&lt;--(:file)&lt;--(g:genomic_info)
+WITH inputs, na, p, data,
+	COLLECT(DISTINCT g.library_strategy) AS library_strategy,
+	COLLECT(DISTINCT g.library_source) AS library_source,
+	COLLECT(DISTINCT g.library_selection) AS library_selection,
+	COLLECT(DISTINCT g.library_layout) AS library_layout,
+	COLLECT(DISTINCT g.platform) AS platform,
+	COLLECT(DISTINCT g.instrument_model) AS instrument_models,
+	COLLECT(DISTINCT g.reference_genome_assembly) AS reference_genome_assembly
+WHERE
+    (size(inputs.library_strategies) = 0 OR size(apoc.coll.intersection(inputs.library_strategies, library_strategy)) &gt; 0) AND
+    (size(inputs.library_sources) = 0 OR size(apoc.coll.intersection(inputs.library_sources, library_source)) &gt; 0) AND 
+    (size(inputs.library_selections) = 0 OR size(apoc.coll.intersection(inputs.library_selections, library_selection)) &gt; 0) AND
+    (size(inputs.library_layouts) = 0 OR size(apoc.coll.intersection(inputs.library_layouts, library_layout)) &gt; 0) AND
+    (size(inputs.platforms) = 0 OR size(apoc.coll.intersection(inputs.platforms, platform)) &gt; 0) AND
+    (size(inputs.instrument_models) = 0 OR size(apoc.coll.intersection(inputs.instrument_models, instrument_models)) &gt; 0) AND
+    (size(inputs.reference_genome_assemblies) = 0 OR size(apoc.coll.intersection(inputs.reference_genome_assemblies, reference_genome_assembly)) &gt; 0)
+OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
+WITH inputs, na, p, data,
+	COLLECT(DISTINCT diag.primary_diagnosis) AS primary_diagnosis
+WHERE
+    (size(inputs.primary_diagnoses) = 0 OR size(apoc.coll.intersection(inputs.primary_diagnoses, primary_diagnosis)) &gt; 0)
+RETURN 
+	data.participant_id AS `Participant ID`,
+	data.study_name AS `Study Name`,
+	data.accession AS `Accession`,
+	data.gender AS `Gender`,
+	data.samples AS `Samples`
+ORDER BY `Participant ID`
+LIMIT 100</t>
   </si>
 </sst>
 </file>
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,16 +911,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="223.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -928,16 +928,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
@@ -945,16 +945,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
